--- a/Detyrat.xlsx
+++ b/Detyrat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinor\Desktop\Holidaymanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinor\Desktop\Eleaving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0901817-CEC5-498D-AB61-8770F8FC7EBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CD709B-BB76-4B54-8E69-FD21BCEBC473}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{B443F1D3-D4B9-4183-B198-D0BCF5D661A3}"/>
   </bookViews>
@@ -734,193 +734,193 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,7 +1240,7 @@
   <dimension ref="D3:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1356,73 +1356,73 @@
     </row>
     <row r="8" spans="4:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D8" s="1"/>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="37"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="29" t="s">
+      <c r="P8" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="31"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="54"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="4:22" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D9" s="1"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="42"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="40"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="34"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="57"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="4:22" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D10" s="1"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="43" t="s">
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L10" s="24" t="s">
+      <c r="L10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="25" t="s">
+      <c r="M10" s="9" t="s">
         <v>4</v>
       </c>
       <c r="N10" s="1"/>
@@ -1445,35 +1445,35 @@
     </row>
     <row r="11" spans="4:22" ht="18" x14ac:dyDescent="0.45">
       <c r="D11" s="1"/>
-      <c r="E11" s="20">
+      <c r="E11" s="7">
         <v>0</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="38" t="s">
+      <c r="G11" s="67"/>
+      <c r="H11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="47"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="50"/>
+      <c r="I11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q11" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" s="62" t="s">
-        <v>26</v>
-      </c>
-      <c r="S11" s="63" t="s">
+      <c r="P11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="30" t="s">
         <v>26</v>
       </c>
       <c r="T11" s="1"/>
@@ -1482,35 +1482,37 @@
     </row>
     <row r="12" spans="4:22" ht="18" x14ac:dyDescent="0.45">
       <c r="D12" s="1"/>
-      <c r="E12" s="19">
+      <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="39" t="s">
+      <c r="G12" s="65"/>
+      <c r="H12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="54"/>
+      <c r="I12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q12" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="R12" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="S12" s="65" t="s">
+      <c r="P12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" s="32" t="s">
         <v>26</v>
       </c>
       <c r="T12" s="1"/>
@@ -1519,35 +1521,33 @@
     </row>
     <row r="13" spans="4:22" ht="18" x14ac:dyDescent="0.45">
       <c r="D13" s="1"/>
-      <c r="E13" s="19">
+      <c r="E13" s="6">
         <v>2</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="23"/>
-      <c r="H13" s="39" t="s">
+      <c r="G13" s="65"/>
+      <c r="H13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="54"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q13" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="R13" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="S13" s="65" t="s">
+      <c r="P13" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" s="32" t="s">
         <v>26</v>
       </c>
       <c r="T13" s="1"/>
@@ -1556,33 +1556,33 @@
     </row>
     <row r="14" spans="4:22" ht="18" x14ac:dyDescent="0.45">
       <c r="D14" s="1"/>
-      <c r="E14" s="19">
+      <c r="E14" s="6">
         <v>3</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="23"/>
-      <c r="H14" s="39" t="s">
+      <c r="G14" s="65"/>
+      <c r="H14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="54"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q14" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="R14" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="S14" s="65" t="s">
+      <c r="P14" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" s="32" t="s">
         <v>26</v>
       </c>
       <c r="T14" s="1"/>
@@ -1591,33 +1591,33 @@
     </row>
     <row r="15" spans="4:22" ht="18" x14ac:dyDescent="0.45">
       <c r="D15" s="1"/>
-      <c r="E15" s="19">
+      <c r="E15" s="6">
         <v>4</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="39" t="s">
+      <c r="G15" s="65"/>
+      <c r="H15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="54"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="R15" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="S15" s="65" t="s">
+      <c r="P15" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" s="32" t="s">
         <v>26</v>
       </c>
       <c r="T15" s="1"/>
@@ -1626,33 +1626,33 @@
     </row>
     <row r="16" spans="4:22" ht="18" x14ac:dyDescent="0.45">
       <c r="D16" s="1"/>
-      <c r="E16" s="19">
+      <c r="E16" s="6">
         <v>5</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="23"/>
-      <c r="H16" s="39" t="s">
+      <c r="G16" s="65"/>
+      <c r="H16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="51"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="54"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
-      <c r="P16" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q16" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="R16" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="S16" s="65" t="s">
+      <c r="P16" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q16" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" s="32" t="s">
         <v>26</v>
       </c>
       <c r="T16" s="1"/>
@@ -1661,33 +1661,33 @@
     </row>
     <row r="17" spans="4:22" ht="18" x14ac:dyDescent="0.45">
       <c r="D17" s="1"/>
-      <c r="E17" s="19">
+      <c r="E17" s="6">
         <v>6</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="23"/>
-      <c r="H17" s="39" t="s">
+      <c r="G17" s="65"/>
+      <c r="H17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="51"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="54"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q17" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="R17" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="S17" s="65" t="s">
+      <c r="P17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" s="32" t="s">
         <v>26</v>
       </c>
       <c r="T17" s="1"/>
@@ -1696,33 +1696,33 @@
     </row>
     <row r="18" spans="4:22" ht="18" x14ac:dyDescent="0.45">
       <c r="D18" s="1"/>
-      <c r="E18" s="19">
+      <c r="E18" s="6">
         <v>7</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="39" t="s">
+      <c r="G18" s="65"/>
+      <c r="H18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="54"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="21"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
-      <c r="P18" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q18" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="R18" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="S18" s="65" t="s">
+      <c r="P18" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" s="32" t="s">
         <v>26</v>
       </c>
       <c r="T18" s="1"/>
@@ -1731,33 +1731,33 @@
     </row>
     <row r="19" spans="4:22" ht="18" x14ac:dyDescent="0.45">
       <c r="D19" s="1"/>
-      <c r="E19" s="19">
+      <c r="E19" s="6">
         <v>8</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="39" t="s">
+      <c r="G19" s="65"/>
+      <c r="H19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="51"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="54"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="21"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
-      <c r="P19" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q19" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="R19" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="S19" s="65" t="s">
+      <c r="P19" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" s="32" t="s">
         <v>26</v>
       </c>
       <c r="T19" s="1"/>
@@ -1766,33 +1766,33 @@
     </row>
     <row r="20" spans="4:22" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D20" s="1"/>
-      <c r="E20" s="19">
+      <c r="E20" s="6">
         <v>9</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="39" t="s">
+      <c r="G20" s="65"/>
+      <c r="H20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="51"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="57"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="24"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
-      <c r="P20" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q20" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="R20" s="64" t="s">
-        <v>26</v>
-      </c>
-      <c r="S20" s="65" t="s">
+      <c r="P20" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q20" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" s="32" t="s">
         <v>26</v>
       </c>
       <c r="T20" s="1"/>
@@ -1801,33 +1801,33 @@
     </row>
     <row r="21" spans="4:22" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D21" s="1"/>
-      <c r="E21" s="19">
+      <c r="E21" s="6">
         <v>10</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="39" t="s">
+      <c r="G21" s="65"/>
+      <c r="H21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="61"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="28"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="P21" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="R21" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="S21" s="67" t="s">
+      <c r="P21" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" s="34" t="s">
         <v>26</v>
       </c>
       <c r="T21" s="1"/>
@@ -1836,25 +1836,25 @@
     </row>
     <row r="22" spans="4:22" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D22" s="1"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="26" t="s">
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="28"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="44" t="s">
+      <c r="P22" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="45"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="60"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -2113,6 +2113,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="I8:M9"/>
     <mergeCell ref="I22:M22"/>
     <mergeCell ref="E8:G10"/>
@@ -2129,8 +2131,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Detyrat.xlsx
+++ b/Detyrat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinor\Desktop\Eleaving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CD709B-BB76-4B54-8E69-FD21BCEBC473}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E3B3F1-B007-44BF-8E81-6501844D8C64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{B443F1D3-D4B9-4183-B198-D0BCF5D661A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="29">
   <si>
     <t>Tabelat</t>
   </si>
@@ -824,6 +824,54 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -873,54 +921,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,16 +1240,16 @@
   <dimension ref="D3:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="12.06640625" customWidth="1"/>
-    <col min="8" max="9" width="18.19921875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="9" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="3" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1270,7 +1270,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="4" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1291,7 +1291,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="5" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1312,7 +1312,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="6" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1333,7 +1333,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="4:22" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="4:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1354,62 +1354,62 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="4:22" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="4:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="50" t="s">
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="37"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="52" t="s">
+      <c r="P8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="54"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="37"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="4:22" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="4:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="40"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="56"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="57"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="40"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="4:22" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="4:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="47"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="63"/>
       <c r="I10" s="12" t="s">
         <v>28</v>
       </c>
@@ -1443,15 +1443,15 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="11" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D11" s="1"/>
       <c r="E11" s="7">
         <v>0</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="67"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="10" t="s">
         <v>18</v>
       </c>
@@ -1480,15 +1480,15 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="12" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="65"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="11" t="s">
         <v>18</v>
       </c>
@@ -1519,23 +1519,33 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="13" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="6">
         <v>2</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="65"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
+      <c r="I13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="31" t="s">
@@ -1554,15 +1564,15 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="14" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="E14" s="6">
         <v>3</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="65"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="11" t="s">
         <v>19</v>
       </c>
@@ -1589,15 +1599,15 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="15" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="6">
         <v>4</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="65"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="11" t="s">
         <v>19</v>
       </c>
@@ -1624,15 +1634,15 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="16" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="E16" s="6">
         <v>5</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="65"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1659,15 +1669,15 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="E17" s="6">
         <v>6</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="65"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="11" t="s">
         <v>20</v>
       </c>
@@ -1694,15 +1704,15 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18" s="6">
         <v>7</v>
       </c>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="65"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="11" t="s">
         <v>21</v>
       </c>
@@ -1729,15 +1739,15 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="E19" s="6">
         <v>8</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="65"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="11" t="s">
         <v>21</v>
       </c>
@@ -1764,15 +1774,15 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="4:22" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="4:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D20" s="1"/>
       <c r="E20" s="6">
         <v>9</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="65"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="11" t="s">
         <v>22</v>
       </c>
@@ -1799,15 +1809,15 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="4:22" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="4:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="1"/>
       <c r="E21" s="6">
         <v>10</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="65"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="11" t="s">
         <v>22</v>
       </c>
@@ -1834,32 +1844,32 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="4:22" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="4:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="1"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="41" t="s">
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="43"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="59"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="58" t="s">
+      <c r="P22" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="60"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="43"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
-    <row r="23" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="23" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1880,7 +1890,7 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
     </row>
-    <row r="24" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="24" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1901,7 +1911,7 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="25" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1922,7 +1932,7 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
-    <row r="26" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="26" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1943,7 +1953,7 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="27" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1964,7 +1974,7 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="28" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1985,7 +1995,7 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="29" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2006,7 +2016,7 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="30" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2027,7 +2037,7 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="31" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2048,7 +2058,7 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="32" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2069,7 +2079,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="33" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2090,7 +2100,7 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="4:22" ht="18" x14ac:dyDescent="0.45">
+    <row r="34" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2113,10 +2123,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I8:M9"/>
-    <mergeCell ref="I22:M22"/>
     <mergeCell ref="E8:G10"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="P8:S9"/>
@@ -2131,6 +2137,10 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I8:M9"/>
+    <mergeCell ref="I22:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Detyrat.xlsx
+++ b/Detyrat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinor\Desktop\Eleaving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E3B3F1-B007-44BF-8E81-6501844D8C64}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035956D7-8E16-4EFF-B032-6C276DE81AB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{B443F1D3-D4B9-4183-B198-D0BCF5D661A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
   <si>
     <t>Tabelat</t>
   </si>
@@ -824,6 +824,30 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -897,30 +921,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,7 +1240,7 @@
   <dimension ref="D3:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,60 +1356,60 @@
     </row>
     <row r="8" spans="4:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="66" t="s">
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="51" t="s">
+      <c r="I8" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="53"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="61"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="35" t="s">
+      <c r="P8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="37"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="45"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="4:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="56"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="64"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="40"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="47"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="48"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="4:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="63"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="12" t="s">
         <v>28</v>
       </c>
@@ -1448,10 +1448,10 @@
       <c r="E11" s="7">
         <v>0</v>
       </c>
-      <c r="F11" s="49" t="s">
+      <c r="F11" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="50"/>
+      <c r="G11" s="58"/>
       <c r="H11" s="10" t="s">
         <v>18</v>
       </c>
@@ -1485,10 +1485,10 @@
       <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="48"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="11" t="s">
         <v>18</v>
       </c>
@@ -1524,10 +1524,10 @@
       <c r="E13" s="6">
         <v>2</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="48"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="11" t="s">
         <v>18</v>
       </c>
@@ -1569,10 +1569,10 @@
       <c r="E14" s="6">
         <v>3</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="48"/>
+      <c r="G14" s="56"/>
       <c r="H14" s="11" t="s">
         <v>19</v>
       </c>
@@ -1604,14 +1604,16 @@
       <c r="E15" s="6">
         <v>4</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="48"/>
+      <c r="G15" s="56"/>
       <c r="H15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="18"/>
+      <c r="I15" s="18" t="s">
+        <v>26</v>
+      </c>
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
@@ -1639,10 +1641,10 @@
       <c r="E16" s="6">
         <v>5</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="48"/>
+      <c r="G16" s="56"/>
       <c r="H16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1674,10 +1676,10 @@
       <c r="E17" s="6">
         <v>6</v>
       </c>
-      <c r="F17" s="47" t="s">
+      <c r="F17" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="48"/>
+      <c r="G17" s="56"/>
       <c r="H17" s="11" t="s">
         <v>20</v>
       </c>
@@ -1709,10 +1711,10 @@
       <c r="E18" s="6">
         <v>7</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="48"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="11" t="s">
         <v>21</v>
       </c>
@@ -1744,10 +1746,10 @@
       <c r="E19" s="6">
         <v>8</v>
       </c>
-      <c r="F19" s="47" t="s">
+      <c r="F19" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="48"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="11" t="s">
         <v>21</v>
       </c>
@@ -1779,10 +1781,10 @@
       <c r="E20" s="6">
         <v>9</v>
       </c>
-      <c r="F20" s="47" t="s">
+      <c r="F20" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="48"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="11" t="s">
         <v>22</v>
       </c>
@@ -1814,10 +1816,10 @@
       <c r="E21" s="6">
         <v>10</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="48"/>
+      <c r="G21" s="56"/>
       <c r="H21" s="11" t="s">
         <v>22</v>
       </c>
@@ -1846,25 +1848,25 @@
     </row>
     <row r="22" spans="4:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="1"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="57" t="s">
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="59"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="67"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="41" t="s">
+      <c r="P22" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
-      <c r="S22" s="43"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="51"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -2123,6 +2125,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I8:M9"/>
+    <mergeCell ref="I22:M22"/>
     <mergeCell ref="E8:G10"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="P8:S9"/>
@@ -2139,8 +2143,6 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I8:M9"/>
-    <mergeCell ref="I22:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Detyrat.xlsx
+++ b/Detyrat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinor\Desktop\Eleaving\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035956D7-8E16-4EFF-B032-6C276DE81AB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACE1A65-4663-4EB3-9434-AA2127EAE90C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{B443F1D3-D4B9-4183-B198-D0BCF5D661A3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
   <si>
     <t>Tabelat</t>
   </si>
@@ -824,6 +824,33 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -894,33 +921,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,7 +1240,7 @@
   <dimension ref="D3:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,60 +1356,60 @@
     </row>
     <row r="8" spans="4:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="1"/>
-      <c r="E8" s="35" t="s">
+      <c r="E8" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="41" t="s">
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="60"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="61"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="37"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="43" t="s">
+      <c r="P8" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-      <c r="S8" s="45"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="54"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
     <row r="9" spans="4:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="64"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="40"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="48"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="57"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
     <row r="10" spans="4:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="38"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="47"/>
       <c r="I10" s="12" t="s">
         <v>28</v>
       </c>
@@ -1448,10 +1448,10 @@
       <c r="E11" s="7">
         <v>0</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="58"/>
+      <c r="G11" s="67"/>
       <c r="H11" s="10" t="s">
         <v>18</v>
       </c>
@@ -1485,10 +1485,10 @@
       <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="56"/>
+      <c r="G12" s="65"/>
       <c r="H12" s="11" t="s">
         <v>18</v>
       </c>
@@ -1498,9 +1498,15 @@
       <c r="J12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="21"/>
+      <c r="K12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="31" t="s">
@@ -1524,10 +1530,10 @@
       <c r="E13" s="6">
         <v>2</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="56"/>
+      <c r="G13" s="65"/>
       <c r="H13" s="11" t="s">
         <v>18</v>
       </c>
@@ -1569,10 +1575,10 @@
       <c r="E14" s="6">
         <v>3</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="56"/>
+      <c r="G14" s="65"/>
       <c r="H14" s="11" t="s">
         <v>19</v>
       </c>
@@ -1604,10 +1610,10 @@
       <c r="E15" s="6">
         <v>4</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="56"/>
+      <c r="G15" s="65"/>
       <c r="H15" s="11" t="s">
         <v>19</v>
       </c>
@@ -1641,10 +1647,10 @@
       <c r="E16" s="6">
         <v>5</v>
       </c>
-      <c r="F16" s="55" t="s">
+      <c r="F16" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="56"/>
+      <c r="G16" s="65"/>
       <c r="H16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1676,10 +1682,10 @@
       <c r="E17" s="6">
         <v>6</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="56"/>
+      <c r="G17" s="65"/>
       <c r="H17" s="11" t="s">
         <v>20</v>
       </c>
@@ -1711,10 +1717,10 @@
       <c r="E18" s="6">
         <v>7</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="56"/>
+      <c r="G18" s="65"/>
       <c r="H18" s="11" t="s">
         <v>21</v>
       </c>
@@ -1746,10 +1752,10 @@
       <c r="E19" s="6">
         <v>8</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="56"/>
+      <c r="G19" s="65"/>
       <c r="H19" s="11" t="s">
         <v>21</v>
       </c>
@@ -1781,10 +1787,10 @@
       <c r="E20" s="6">
         <v>9</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="F20" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="56"/>
+      <c r="G20" s="65"/>
       <c r="H20" s="11" t="s">
         <v>22</v>
       </c>
@@ -1816,10 +1822,10 @@
       <c r="E21" s="6">
         <v>10</v>
       </c>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="56"/>
+      <c r="G21" s="65"/>
       <c r="H21" s="11" t="s">
         <v>22</v>
       </c>
@@ -1848,25 +1854,25 @@
     </row>
     <row r="22" spans="4:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D22" s="1"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="65" t="s">
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="67"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="49" t="s">
+      <c r="P22" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="51"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="60"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -2125,6 +2131,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="I8:M9"/>
     <mergeCell ref="I22:M22"/>
     <mergeCell ref="E8:G10"/>
@@ -2141,8 +2149,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Detyrat.xlsx
+++ b/Detyrat.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rinor\Desktop\Eleaving\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACE1A65-4663-4EB3-9434-AA2127EAE90C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{B443F1D3-D4B9-4183-B198-D0BCF5D661A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="29">
   <si>
     <t>Tabelat</t>
   </si>
@@ -117,8 +111,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,7 +714,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -824,6 +818,54 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -875,52 +917,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -983,7 +980,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1035,7 +1032,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1229,27 +1226,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64292E6E-807F-4171-9018-78250CE3E30E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D3:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="9" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:22" ht="18.75">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1270,7 +1267,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:22" ht="18.75">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1291,7 +1288,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:22" ht="18.75">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1312,7 +1309,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:22" ht="18.75">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1333,7 +1330,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="4:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:22" ht="19.5" thickBot="1">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1354,62 +1351,62 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="4:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:22" ht="18" customHeight="1">
       <c r="D8" s="1"/>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="50" t="s">
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="37"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="52" t="s">
+      <c r="P8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="53"/>
-      <c r="S8" s="54"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="37"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="4:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:22" ht="19.5" thickBot="1">
       <c r="D9" s="1"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="40"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="56"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="57"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="40"/>
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
     </row>
-    <row r="10" spans="4:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:22" ht="19.5" thickBot="1">
       <c r="D10" s="1"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="47"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="63"/>
       <c r="I10" s="12" t="s">
         <v>28</v>
       </c>
@@ -1443,15 +1440,15 @@
       <c r="U10" s="1"/>
       <c r="V10" s="1"/>
     </row>
-    <row r="11" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:22" ht="18.75">
       <c r="D11" s="1"/>
       <c r="E11" s="7">
         <v>0</v>
       </c>
-      <c r="F11" s="66" t="s">
+      <c r="F11" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="67"/>
+      <c r="G11" s="50"/>
       <c r="H11" s="10" t="s">
         <v>18</v>
       </c>
@@ -1480,15 +1477,15 @@
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
     </row>
-    <row r="12" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:22" ht="18.75">
       <c r="D12" s="1"/>
       <c r="E12" s="6">
         <v>1</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="65"/>
+      <c r="G12" s="48"/>
       <c r="H12" s="11" t="s">
         <v>18</v>
       </c>
@@ -1525,15 +1522,15 @@
       <c r="U12" s="1"/>
       <c r="V12" s="1"/>
     </row>
-    <row r="13" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:22" ht="18.75">
       <c r="D13" s="1"/>
       <c r="E13" s="6">
         <v>2</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="65"/>
+      <c r="G13" s="48"/>
       <c r="H13" s="11" t="s">
         <v>18</v>
       </c>
@@ -1570,23 +1567,33 @@
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
     </row>
-    <row r="14" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:22" ht="18.75">
       <c r="D14" s="1"/>
       <c r="E14" s="6">
         <v>3</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="65"/>
+      <c r="G14" s="48"/>
       <c r="H14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="21"/>
+      <c r="I14" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="68" t="s">
+        <v>26</v>
+      </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="31" t="s">
@@ -1605,25 +1612,33 @@
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
     </row>
-    <row r="15" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:22" ht="18.75">
       <c r="D15" s="1"/>
       <c r="E15" s="6">
         <v>4</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="65"/>
+      <c r="G15" s="48"/>
       <c r="H15" s="11" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="21"/>
+      <c r="J15" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="68" t="s">
+        <v>26</v>
+      </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="31" t="s">
@@ -1642,15 +1657,15 @@
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:22" ht="18.75">
       <c r="D16" s="1"/>
       <c r="E16" s="6">
         <v>5</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="65"/>
+      <c r="G16" s="48"/>
       <c r="H16" s="11" t="s">
         <v>20</v>
       </c>
@@ -1677,15 +1692,15 @@
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
     </row>
-    <row r="17" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:22" ht="18.75">
       <c r="D17" s="1"/>
       <c r="E17" s="6">
         <v>6</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="65"/>
+      <c r="G17" s="48"/>
       <c r="H17" s="11" t="s">
         <v>20</v>
       </c>
@@ -1712,23 +1727,33 @@
       <c r="U17" s="1"/>
       <c r="V17" s="1"/>
     </row>
-    <row r="18" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:22" ht="18.75">
       <c r="D18" s="1"/>
       <c r="E18" s="6">
         <v>7</v>
       </c>
-      <c r="F18" s="64" t="s">
+      <c r="F18" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="65"/>
+      <c r="G18" s="48"/>
       <c r="H18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="21"/>
+      <c r="I18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="31" t="s">
@@ -1747,23 +1772,33 @@
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
     </row>
-    <row r="19" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:22" ht="18.75">
       <c r="D19" s="1"/>
       <c r="E19" s="6">
         <v>8</v>
       </c>
-      <c r="F19" s="64" t="s">
+      <c r="F19" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="65"/>
+      <c r="G19" s="48"/>
       <c r="H19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="21"/>
+      <c r="I19" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="31" t="s">
@@ -1782,15 +1817,15 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
     </row>
-    <row r="20" spans="4:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:22" ht="19.5" thickBot="1">
       <c r="D20" s="1"/>
       <c r="E20" s="6">
         <v>9</v>
       </c>
-      <c r="F20" s="64" t="s">
+      <c r="F20" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="65"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="11" t="s">
         <v>22</v>
       </c>
@@ -1817,15 +1852,15 @@
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
     </row>
-    <row r="21" spans="4:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:22" ht="19.5" thickBot="1">
       <c r="D21" s="1"/>
       <c r="E21" s="6">
         <v>10</v>
       </c>
-      <c r="F21" s="64" t="s">
+      <c r="F21" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="65"/>
+      <c r="G21" s="48"/>
       <c r="H21" s="11" t="s">
         <v>22</v>
       </c>
@@ -1852,32 +1887,32 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="4:22" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:22" ht="19.5" thickBot="1">
       <c r="D22" s="1"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="41" t="s">
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="43"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="59"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="P22" s="58" t="s">
+      <c r="P22" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="60"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="43"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
     </row>
-    <row r="23" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:22" ht="18.75">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1898,7 +1933,7 @@
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
     </row>
-    <row r="24" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:22" ht="18.75">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1919,7 +1954,7 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
     </row>
-    <row r="25" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:22" ht="18.75">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1940,7 +1975,7 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
     </row>
-    <row r="26" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:22" ht="18.75">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1961,7 +1996,7 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
     </row>
-    <row r="27" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:22" ht="18.75">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1982,7 +2017,7 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
     </row>
-    <row r="28" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:22" ht="18.75">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2003,7 +2038,7 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
     </row>
-    <row r="29" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:22" ht="18.75">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2024,7 +2059,7 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
     </row>
-    <row r="30" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:22" ht="18.75">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2045,7 +2080,7 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
     </row>
-    <row r="31" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:22" ht="18.75">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2066,7 +2101,7 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
     </row>
-    <row r="32" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:22" ht="18.75">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2087,7 +2122,7 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
     </row>
-    <row r="33" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:22" ht="18.75">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2108,7 +2143,7 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
     </row>
-    <row r="34" spans="4:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:22" ht="18.75">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2131,10 +2166,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="I8:M9"/>
-    <mergeCell ref="I22:M22"/>
     <mergeCell ref="E8:G10"/>
     <mergeCell ref="H8:H10"/>
     <mergeCell ref="P8:S9"/>
@@ -2149,6 +2180,10 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="I8:M9"/>
+    <mergeCell ref="I22:M22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
